--- a/Lab 4/lab4_data.xlsx
+++ b/Lab 4/lab4_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>duty cycle</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Angular velocity (rad/sec)</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -78,6 +81,277 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Angular velocity vs. Duty Cycle</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Angular velocity (rad/sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>57.11986643</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.83185307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.7758041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.66438934</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.13879271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.91982714</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.91982714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.81317008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.91982714</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.81317008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2113880808"/>
+        <c:axId val="-2113883976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2113880808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Duty</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Cycle</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2113883976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2113883976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Angular Velocity (rad/sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2113880808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,15 +676,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -432,7 +706,7 @@
         <v>57.119866430000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" s="1">
         <v>15</v>
       </c>
@@ -443,7 +717,7 @@
         <v>62.831853070000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16">
+    <row r="4" spans="1:5" ht="16">
       <c r="A4" s="1">
         <v>25</v>
       </c>
@@ -454,7 +728,7 @@
         <v>83.775804100000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row r="5" spans="1:5" ht="16">
       <c r="A5" s="1">
         <v>35</v>
       </c>
@@ -464,8 +738,11 @@
       <c r="C5" s="1">
         <v>96.66438934</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="16">
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16">
       <c r="A6" s="1">
         <v>45</v>
       </c>
@@ -476,7 +753,7 @@
         <v>66.138792710000004</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16">
+    <row r="7" spans="1:5" ht="16">
       <c r="A7" s="1">
         <v>55</v>
       </c>
@@ -487,7 +764,7 @@
         <v>73.919827139999995</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16">
+    <row r="8" spans="1:5" ht="16">
       <c r="A8" s="1">
         <v>65</v>
       </c>
@@ -498,7 +775,7 @@
         <v>73.919827139999995</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16">
+    <row r="9" spans="1:5" ht="16">
       <c r="A9" s="1">
         <v>75</v>
       </c>
@@ -509,7 +786,7 @@
         <v>69.813170080000006</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16">
+    <row r="10" spans="1:5" ht="16">
       <c r="A10" s="1">
         <v>85</v>
       </c>
@@ -520,7 +797,7 @@
         <v>73.919827139999995</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16">
+    <row r="11" spans="1:5" ht="16">
       <c r="A11" s="1">
         <v>95</v>
       </c>
@@ -533,6 +810,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
